--- a/output/Coronavirus high risk population estimate - CA_BenEdits_Scarlett.xlsx
+++ b/output/Coronavirus high risk population estimate - CA_BenEdits_Scarlett.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Desktop\California_Covid\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8552DDA7-3956-47D8-AD2E-AC5D4C435E63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF2F02F-C0E8-4E13-BF79-E211FCD37F79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-10245" windowWidth="28996" windowHeight="15795" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicaid" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="75">
   <si>
     <t>NYC</t>
   </si>
@@ -250,9 +250,6 @@
     <t>PrivateInsurance</t>
   </si>
   <si>
-    <t xml:space="preserve">MEPS Chronic Disease Prevalene by Insurance Status </t>
-  </si>
-  <si>
     <t>MEPS Disease Prevalence by Insurance - One Condition</t>
   </si>
   <si>
@@ -260,6 +257,9 @@
   </si>
   <si>
     <t>Table 9 calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEPS Chronic Disease Prevalence by Insurance Status </t>
   </si>
 </sst>
 </file>
@@ -352,7 +352,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -371,10 +371,11 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -390,6 +391,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -678,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA109"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
@@ -3457,7 +3461,7 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B5" t="s">
@@ -3468,23 +3472,23 @@
         <v>9.020586868011489E-2</v>
       </c>
       <c r="D5">
-        <f>MEPS_Calculations!K8</f>
+        <f>MEPS_Calculations!M8</f>
         <v>0.41933044222652482</v>
       </c>
       <c r="H5" t="s">
         <v>49</v>
       </c>
       <c r="I5" s="6">
-        <f>MEPS_Calculations!V15</f>
+        <f>MEPS_Calculations!Y15</f>
         <v>0.43102203208250184</v>
       </c>
       <c r="J5" s="6">
-        <f>MEPS_Calculations!W15</f>
+        <f>MEPS_Calculations!Z15</f>
         <v>0.75659097892979643</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -3493,23 +3497,23 @@
         <v>0.34770106598628037</v>
       </c>
       <c r="D6">
-        <f>MEPS_Calculations!K6</f>
+        <f>MEPS_Calculations!M6</f>
         <v>0.81293975907001981</v>
       </c>
       <c r="H6" t="s">
         <v>51</v>
       </c>
       <c r="I6" s="6">
-        <f>MEPS_Calculations!V16</f>
+        <f>MEPS_Calculations!Y16</f>
         <v>1.5975692537396944</v>
       </c>
       <c r="J6" s="6">
-        <f>MEPS_Calculations!W16</f>
+        <f>MEPS_Calculations!Z16</f>
         <v>1.1790531281403904</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="18"/>
       <c r="B7" t="s">
         <v>41</v>
       </c>
@@ -3518,23 +3522,23 @@
         <v>0.18499267028678792</v>
       </c>
       <c r="D7">
-        <f>MEPS_Calculations!K9</f>
+        <f>MEPS_Calculations!M9</f>
         <v>2.7426264513545977</v>
       </c>
       <c r="H7" t="s">
         <v>57</v>
       </c>
       <c r="I7" s="6">
-        <f>MEPS_Calculations!V17</f>
+        <f>MEPS_Calculations!Y17</f>
         <v>1</v>
       </c>
       <c r="J7" s="6">
-        <f>MEPS_Calculations!W17</f>
+        <f>MEPS_Calculations!Z17</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="18"/>
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -3543,23 +3547,23 @@
         <v>0.92397951101019171</v>
       </c>
       <c r="D8">
-        <f>MEPS_Calculations!K7</f>
+        <f>MEPS_Calculations!M7</f>
         <v>0.80467321941934566</v>
       </c>
       <c r="H8" t="s">
         <v>58</v>
       </c>
       <c r="I8" s="6">
-        <f>MEPS_Calculations!V18</f>
+        <f>MEPS_Calculations!Y18</f>
         <v>1.7257078405218755</v>
       </c>
       <c r="J8" s="6">
-        <f>MEPS_Calculations!W18</f>
+        <f>MEPS_Calculations!Z18</f>
         <v>1.2860122335080186</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="18"/>
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -3568,18 +3572,18 @@
         <v>0.49058392673774215</v>
       </c>
       <c r="D9">
-        <f>MEPS_Calculations!K5</f>
+        <f>MEPS_Calculations!M5</f>
         <v>0.76499115311582944</v>
       </c>
       <c r="H9" t="s">
         <v>53</v>
       </c>
       <c r="I9" s="6">
-        <f>MEPS_Calculations!V19</f>
+        <f>MEPS_Calculations!Y19</f>
         <v>0.73213494264010148</v>
       </c>
       <c r="J9" s="6">
-        <f>MEPS_Calculations!W19</f>
+        <f>MEPS_Calculations!Z19</f>
         <v>0.78504924962834388</v>
       </c>
     </row>
@@ -3588,16 +3592,16 @@
         <v>54</v>
       </c>
       <c r="I10" s="6">
-        <f>MEPS_Calculations!V20</f>
+        <f>MEPS_Calculations!Y20</f>
         <v>0.86372982695794276</v>
       </c>
       <c r="J10" s="6">
-        <f>MEPS_Calculations!W20</f>
+        <f>MEPS_Calculations!Z20</f>
         <v>0.77123070087287282</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B11" t="s">
@@ -3608,12 +3612,12 @@
         <v>1.5055322597076548</v>
       </c>
       <c r="D11">
-        <f>MEPS_Calculations!K14</f>
+        <f>MEPS_Calculations!M14</f>
         <v>1.0339317677204773</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="18"/>
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -3622,7 +3626,7 @@
         <v>1.7591399559903498</v>
       </c>
       <c r="D12">
-        <f>MEPS_Calculations!K12</f>
+        <f>MEPS_Calculations!M12</f>
         <v>1.3197207472793806</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -3630,7 +3634,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="18"/>
       <c r="B13" t="s">
         <v>41</v>
       </c>
@@ -3639,7 +3643,7 @@
         <v>0.80493671670142264</v>
       </c>
       <c r="D13">
-        <f>MEPS_Calculations!K15</f>
+        <f>MEPS_Calculations!M15</f>
         <v>0</v>
       </c>
       <c r="H13" t="s">
@@ -3650,7 +3654,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="18"/>
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -3659,7 +3663,7 @@
         <v>3.6669518227103901</v>
       </c>
       <c r="D14">
-        <f>MEPS_Calculations!K13</f>
+        <f>MEPS_Calculations!M13</f>
         <v>2.0558306608090637</v>
       </c>
       <c r="I14" t="s">
@@ -3670,7 +3674,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="18"/>
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -3679,7 +3683,7 @@
         <v>1.658168086567396</v>
       </c>
       <c r="D15">
-        <f>MEPS_Calculations!K11</f>
+        <f>MEPS_Calculations!M11</f>
         <v>1.5093138030573299</v>
       </c>
       <c r="H15" t="s">
@@ -3691,16 +3695,16 @@
         <v>49</v>
       </c>
       <c r="I16">
-        <f>MEPS_Calculations!V4</f>
+        <f>MEPS_Calculations!Y4</f>
         <v>0.50168542869440036</v>
       </c>
       <c r="J16">
-        <f>MEPS_Calculations!W4</f>
+        <f>MEPS_Calculations!Z4</f>
         <v>0.88657457842765408</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B17" t="s">
@@ -3716,16 +3720,16 @@
         <v>51</v>
       </c>
       <c r="I17">
-        <f>MEPS_Calculations!V5</f>
+        <f>MEPS_Calculations!Y5</f>
         <v>1.1927649935439826</v>
       </c>
       <c r="J17">
-        <f>MEPS_Calculations!W5</f>
+        <f>MEPS_Calculations!Z5</f>
         <v>0.84342914706412409</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="18"/>
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -3746,7 +3750,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="18"/>
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -3760,16 +3764,16 @@
         <v>58</v>
       </c>
       <c r="I19">
-        <f>MEPS_Calculations!V7</f>
+        <f>MEPS_Calculations!Y7</f>
         <v>1.4863137377125413</v>
       </c>
       <c r="J19">
-        <f>MEPS_Calculations!W7</f>
+        <f>MEPS_Calculations!Z7</f>
         <v>1.0478860187807824</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="18"/>
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -3783,16 +3787,16 @@
         <v>53</v>
       </c>
       <c r="I20">
-        <f>MEPS_Calculations!V8</f>
+        <f>MEPS_Calculations!Y8</f>
         <v>0.81982547727531319</v>
       </c>
       <c r="J20">
-        <f>MEPS_Calculations!W8</f>
+        <f>MEPS_Calculations!Z8</f>
         <v>0.97721364148664591</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="18"/>
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -3806,16 +3810,16 @@
         <v>54</v>
       </c>
       <c r="I21">
-        <f>MEPS_Calculations!V9</f>
+        <f>MEPS_Calculations!Y9</f>
         <v>0.880232527938972</v>
       </c>
       <c r="J21">
-        <f>MEPS_Calculations!W9</f>
+        <f>MEPS_Calculations!Z9</f>
         <v>0.82101365655000624</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B23" t="s">
@@ -3826,12 +3830,12 @@
         <v>1.2120672231908767</v>
       </c>
       <c r="D23">
-        <f>MEPS_Calculations!K26</f>
+        <f>MEPS_Calculations!M26</f>
         <v>0.92160584391470413</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="A24" s="18"/>
       <c r="B24" t="s">
         <v>17</v>
       </c>
@@ -3840,12 +3844,12 @@
         <v>2.1241961758147232</v>
       </c>
       <c r="D24">
-        <f>MEPS_Calculations!K24</f>
+        <f>MEPS_Calculations!M24</f>
         <v>1.7092556119290658</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="A25" s="18"/>
       <c r="B25" t="s">
         <v>41</v>
       </c>
@@ -3854,12 +3858,12 @@
         <v>3.6906241612123964</v>
       </c>
       <c r="D25">
-        <f>MEPS_Calculations!K27</f>
+        <f>MEPS_Calculations!M27</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="18"/>
       <c r="B26" t="s">
         <v>19</v>
       </c>
@@ -3868,12 +3872,12 @@
         <v>2.6326697294538026</v>
       </c>
       <c r="D26">
-        <f>MEPS_Calculations!K25</f>
+        <f>MEPS_Calculations!M25</f>
         <v>1.3355132966296412</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="A27" s="18"/>
       <c r="B27" t="s">
         <v>20</v>
       </c>
@@ -3882,12 +3886,12 @@
         <v>1.5544479606557653</v>
       </c>
       <c r="D27">
-        <f>MEPS_Calculations!K23</f>
+        <f>MEPS_Calculations!M23</f>
         <v>1.6846355515277058</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B29" t="s">
@@ -3898,12 +3902,12 @@
         <v>0.30914201671914571</v>
       </c>
       <c r="D29">
-        <f>MEPS_Calculations!K32</f>
+        <f>MEPS_Calculations!M32</f>
         <v>0.47210785294318885</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
+      <c r="A30" s="18"/>
       <c r="B30" t="s">
         <v>17</v>
       </c>
@@ -3912,12 +3916,12 @@
         <v>0.55155563467024527</v>
       </c>
       <c r="D30">
-        <f>MEPS_Calculations!K30</f>
+        <f>MEPS_Calculations!M30</f>
         <v>0.69134729878101064</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
+      <c r="A31" s="18"/>
       <c r="B31" t="s">
         <v>41</v>
       </c>
@@ -3926,12 +3930,12 @@
         <v>9.1218797101150037E-2</v>
       </c>
       <c r="D31">
-        <f>MEPS_Calculations!K33</f>
+        <f>MEPS_Calculations!M33</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
+      <c r="A32" s="18"/>
       <c r="B32" t="s">
         <v>19</v>
       </c>
@@ -3940,12 +3944,12 @@
         <v>2.3841439157909559</v>
       </c>
       <c r="D32">
-        <f>MEPS_Calculations!K31</f>
+        <f>MEPS_Calculations!M31</f>
         <v>1.2454237128891028</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
+      <c r="A33" s="18"/>
       <c r="B33" t="s">
         <v>20</v>
       </c>
@@ -3954,12 +3958,12 @@
         <v>0.64348014623892547</v>
       </c>
       <c r="D33">
-        <f>MEPS_Calculations!K29</f>
+        <f>MEPS_Calculations!M29</f>
         <v>0.53624884918579896</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B35" t="s">
@@ -3970,12 +3974,12 @@
         <v>0.46536556005859542</v>
       </c>
       <c r="D35">
-        <f>MEPS_Calculations!K38</f>
+        <f>MEPS_Calculations!M38</f>
         <v>0.47981387302981759</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
+      <c r="A36" s="18"/>
       <c r="B36" t="s">
         <v>17</v>
       </c>
@@ -3984,12 +3988,12 @@
         <v>0.63835034088752374</v>
       </c>
       <c r="D36">
-        <f>MEPS_Calculations!K36</f>
+        <f>MEPS_Calculations!M36</f>
         <v>0.63762798262964859</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
+      <c r="A37" s="18"/>
       <c r="B37" t="s">
         <v>41</v>
       </c>
@@ -3998,12 +4002,12 @@
         <v>0.14824086882910412</v>
       </c>
       <c r="D37">
-        <f>MEPS_Calculations!K39</f>
+        <f>MEPS_Calculations!M39</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
+      <c r="A38" s="18"/>
       <c r="B38" t="s">
         <v>19</v>
       </c>
@@ -4012,12 +4016,12 @@
         <v>2.125076129622784</v>
       </c>
       <c r="D38">
-        <f>MEPS_Calculations!K37</f>
+        <f>MEPS_Calculations!M37</f>
         <v>1.2854155254435773</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
+      <c r="A39" s="18"/>
       <c r="B39" t="s">
         <v>20</v>
       </c>
@@ -4026,7 +4030,7 @@
         <v>1.0255492884396911</v>
       </c>
       <c r="D39">
-        <f>MEPS_Calculations!K35</f>
+        <f>MEPS_Calculations!M35</f>
         <v>0.76448167807890743</v>
       </c>
     </row>
@@ -4049,10 +4053,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AQ39"/>
+  <dimension ref="A1:AT39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4060,85 +4064,93 @@
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.7109375" style="5"/>
-    <col min="31" max="32" width="10" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="11.85546875" style="16" customWidth="1"/>
+    <col min="17" max="17" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.7109375" style="5"/>
     <col min="34" max="35" width="10" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="10" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="Q1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="N1" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="12"/>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="8" t="s">
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="20" t="s">
+      <c r="U2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="20"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="Z2" s="21"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25"/>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>45</v>
       </c>
@@ -4164,23 +4176,18 @@
         <v>62</v>
       </c>
       <c r="I3" s="12"/>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="Q3" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>7</v>
@@ -4191,15 +4198,24 @@
       <c r="T3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="U3" s="7"/>
+      <c r="U3" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="V3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="Z3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -4209,41 +4225,57 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="N4" s="8" t="s">
+      <c r="J4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="7">
+      <c r="R4" s="7">
         <v>0.1622547</v>
       </c>
-      <c r="P4" s="7">
+      <c r="S4" s="7">
         <v>0.4686109</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="T4" s="7">
         <v>0</v>
       </c>
-      <c r="R4" s="7">
+      <c r="U4" s="7">
         <v>0.26367649999999998</v>
       </c>
-      <c r="S4" s="7">
+      <c r="V4" s="7">
         <v>0.40030880000000002</v>
       </c>
-      <c r="T4" s="7">
+      <c r="W4" s="7">
         <v>0.4953844</v>
       </c>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7">
-        <f>+O4/O$6</f>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7">
+        <f>+R4/R$6</f>
         <v>0.50168542869440036</v>
       </c>
-      <c r="W4" s="7">
-        <f>+R4/R$6</f>
+      <c r="Z4" s="7">
+        <f>+U4/U$6</f>
         <v>0.88657457842765408</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -4273,42 +4305,58 @@
         <v>0.49058392673774215</v>
       </c>
       <c r="K5" s="12">
+        <f t="shared" ref="K5:L5" si="0">+D5/D$17</f>
+        <v>1.4600024343924449</v>
+      </c>
+      <c r="L5" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="12">
         <f>+F5/F$17</f>
         <v>0.76499115311582944</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="12">
+        <f t="shared" ref="N5:O5" si="1">+G5/G$17</f>
+        <v>0.63617892781040486</v>
+      </c>
+      <c r="O5" s="12">
+        <f t="shared" si="1"/>
+        <v>4.6181723071987877</v>
+      </c>
+      <c r="Q5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="7">
+      <c r="R5" s="7">
         <v>0.38576310000000003</v>
       </c>
-      <c r="P5" s="7">
+      <c r="S5" s="7">
         <v>0.4026497</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="T5" s="7">
         <v>0.37583339999999998</v>
       </c>
-      <c r="R5" s="7">
+      <c r="U5" s="7">
         <v>0.25084459999999997</v>
       </c>
-      <c r="S5" s="7">
+      <c r="V5" s="7">
         <v>0.38260240000000001</v>
       </c>
-      <c r="T5" s="7">
+      <c r="W5" s="7">
         <v>0.38100390000000001</v>
       </c>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7">
-        <f>+O5/O$6</f>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7">
+        <f>+R5/R$6</f>
         <v>1.1927649935439826</v>
       </c>
-      <c r="W5" s="7">
-        <f>+R5/R$6</f>
+      <c r="Z5" s="7">
+        <f>+U5/U$6</f>
         <v>0.84342914706412409</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
       <c r="B6" s="12" t="s">
         <v>17</v>
       </c>
@@ -4336,40 +4384,56 @@
         <v>0.34770106598628037</v>
       </c>
       <c r="K6" s="12">
+        <f t="shared" ref="K6:L6" si="2">+D6/D$18</f>
+        <v>0.1433671618516387</v>
+      </c>
+      <c r="L6" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="12">
         <f>+F6/F$18</f>
         <v>0.81293975907001981</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="12">
+        <f t="shared" ref="N6:O6" si="3">+G6/G$18</f>
+        <v>1.1519759018862512</v>
+      </c>
+      <c r="O6" s="12">
+        <f t="shared" si="3"/>
+        <v>2.6574394663040528</v>
+      </c>
+      <c r="Q6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="7">
+      <c r="R6" s="7">
         <v>0.32341920000000002</v>
       </c>
-      <c r="P6" s="7">
+      <c r="S6" s="7">
         <v>0.29142560000000001</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="T6" s="7">
         <v>0.49134260000000002</v>
       </c>
-      <c r="R6" s="7">
+      <c r="U6" s="7">
         <v>0.29741040000000002</v>
       </c>
-      <c r="S6" s="7">
+      <c r="V6" s="7">
         <v>0.36186819999999997</v>
       </c>
-      <c r="T6" s="7">
+      <c r="W6" s="7">
         <v>0.18119270000000001</v>
       </c>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7">
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7">
         <v>1</v>
       </c>
-      <c r="W6" s="7">
+      <c r="Z6" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
       <c r="B7" s="12" t="s">
         <v>19</v>
       </c>
@@ -4397,42 +4461,58 @@
         <v>0.92397951101019171</v>
       </c>
       <c r="K7" s="12">
+        <f t="shared" ref="K7:L7" si="4">+D7/D$19</f>
+        <v>0.6323548354115075</v>
+      </c>
+      <c r="L7" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" s="12">
         <f>+F7/F$19</f>
         <v>0.80467321941934566</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="12">
+        <f t="shared" ref="N7:O7" si="5">+G7/G$19</f>
+        <v>0.25695013528675925</v>
+      </c>
+      <c r="O7" s="12">
+        <f t="shared" si="5"/>
+        <v>0.53741385208976755</v>
+      </c>
+      <c r="Q7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="7">
+      <c r="R7" s="7">
         <v>0.48070239999999997</v>
       </c>
-      <c r="P7" s="7">
+      <c r="S7" s="7">
         <v>0.32073439999999998</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="T7" s="7">
         <v>0.49391780000000002</v>
       </c>
-      <c r="R7" s="7">
+      <c r="U7" s="7">
         <v>0.31165219999999999</v>
       </c>
-      <c r="S7" s="7">
+      <c r="V7" s="7">
         <v>0.34041979999999999</v>
       </c>
-      <c r="T7" s="7">
+      <c r="W7" s="7">
         <v>0.30649900000000002</v>
       </c>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7">
-        <f>+O7/O$6</f>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7">
+        <f>+R7/R$6</f>
         <v>1.4863137377125413</v>
       </c>
-      <c r="W7" s="7">
-        <f>+R7/R$6</f>
+      <c r="Z7" s="7">
+        <f>+U7/U$6</f>
         <v>1.0478860187807824</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
       <c r="B8" s="12" t="s">
         <v>50</v>
       </c>
@@ -4460,42 +4540,58 @@
         <v>9.020586868011489E-2</v>
       </c>
       <c r="K8" s="12">
+        <f t="shared" ref="K8:L8" si="6">+D8/D$20</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
         <f>+F8/F$20</f>
         <v>0.41933044222652482</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="12">
+        <f t="shared" ref="N8:O8" si="7">+G8/G$20</f>
+        <v>0.89343532399056103</v>
+      </c>
+      <c r="O8" s="12">
+        <f t="shared" si="7"/>
+        <v>0.4673219149763152</v>
+      </c>
+      <c r="Q8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="7">
+      <c r="R8" s="7">
         <v>0.26514729999999997</v>
       </c>
-      <c r="P8" s="7">
+      <c r="S8" s="7">
         <v>0.25522909999999999</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="T8" s="7">
         <v>0</v>
       </c>
-      <c r="R8" s="7">
+      <c r="U8" s="7">
         <v>0.29063349999999999</v>
       </c>
-      <c r="S8" s="7">
+      <c r="V8" s="7">
         <v>0.22753409999999999</v>
       </c>
-      <c r="T8" s="7">
+      <c r="W8" s="7">
         <v>1</v>
       </c>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7">
-        <f>+O8/O$6</f>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7">
+        <f>+R8/R$6</f>
         <v>0.81982547727531319</v>
       </c>
-      <c r="W8" s="7">
-        <f>+R8/R$6</f>
+      <c r="Z8" s="7">
+        <f>+U8/U$6</f>
         <v>0.97721364148664591</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
       <c r="B9" s="12" t="s">
         <v>41</v>
       </c>
@@ -4523,41 +4619,57 @@
         <v>0.18499267028678792</v>
       </c>
       <c r="K9" s="12">
+        <f t="shared" ref="K9:L9" si="8">+D9/D$21</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="12" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" s="12">
         <f>+F9/F$21</f>
         <v>2.7426264513545977</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="12" t="e">
+        <f t="shared" ref="N9:O9" si="9">+G9/G$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9" s="12" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="7">
+      <c r="R9" s="7">
         <v>0.2846841</v>
       </c>
-      <c r="P9" s="7">
+      <c r="S9" s="7">
         <v>0.375282</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="T9" s="7">
         <v>0.49224820000000002</v>
       </c>
-      <c r="R9" s="7">
+      <c r="U9" s="7">
         <v>0.24417800000000001</v>
       </c>
-      <c r="S9" s="7">
+      <c r="V9" s="7">
         <v>0.2677599</v>
       </c>
-      <c r="T9" s="7">
+      <c r="W9" s="7">
         <v>0.3093784</v>
       </c>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7">
-        <f>+O9/O$6</f>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7">
+        <f>+R9/R$6</f>
         <v>0.880232527938972</v>
       </c>
-      <c r="W9" s="7">
-        <f>+R9/R$6</f>
+      <c r="Z9" s="7">
+        <f>+U9/U$6</f>
         <v>0.82101365655000624</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
@@ -4569,9 +4681,10 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
@@ -4579,9 +4692,12 @@
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>51</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -4611,12 +4727,25 @@
         <v>1.658168086567396</v>
       </c>
       <c r="K11" s="12">
+        <f t="shared" ref="K11:L11" si="10">+D11/D$17</f>
+        <v>0.92029943932050595</v>
+      </c>
+      <c r="L11" s="12">
+        <f t="shared" si="10"/>
+        <v>0.57978263112088035</v>
+      </c>
+      <c r="M11" s="12">
         <f>+F11/F$17</f>
         <v>1.5093138030573299</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
+      <c r="N11" s="12">
+        <f t="shared" ref="N11:O11" si="11">+G11/G$17</f>
+        <v>0.77890799594615667</v>
+      </c>
+      <c r="O11" s="12">
+        <f t="shared" si="11"/>
+        <v>2.9137789621032066</v>
+      </c>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
@@ -4624,9 +4753,12 @@
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
       <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
@@ -4654,24 +4786,40 @@
         <v>1.7591399559903498</v>
       </c>
       <c r="K12" s="12">
+        <f t="shared" ref="K12:L12" si="12">+D12/D$18</f>
+        <v>0.90461885037034584</v>
+      </c>
+      <c r="L12" s="12">
+        <f t="shared" si="12"/>
+        <v>2.0977995262591693</v>
+      </c>
+      <c r="M12" s="12">
         <f>+F12/F$18</f>
         <v>1.3197207472793806</v>
       </c>
-      <c r="N12" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="N12" s="12">
+        <f t="shared" ref="N12:O12" si="13">+G12/G$18</f>
+        <v>1.1005752859586324</v>
+      </c>
+      <c r="O12" s="12">
+        <f t="shared" si="13"/>
+        <v>2.1291628210540869</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
       <c r="B13" s="12" t="s">
         <v>19</v>
       </c>
@@ -4699,30 +4847,46 @@
         <v>3.6669518227103901</v>
       </c>
       <c r="K13" s="12">
+        <f t="shared" ref="K13:L13" si="14">+D13/D$19</f>
+        <v>0.90736482034684252</v>
+      </c>
+      <c r="L13" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" s="12">
         <f>+F13/F$19</f>
         <v>2.0558306608090637</v>
       </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="22" t="s">
+      <c r="N13" s="12">
+        <f t="shared" ref="N13:O13" si="15">+G13/G$19</f>
+        <v>3.8370731758648944</v>
+      </c>
+      <c r="O13" s="12">
+        <f t="shared" si="15"/>
+        <v>0.74617935224449605</v>
+      </c>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22" t="s">
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="20" t="s">
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="W13" s="20"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13"/>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13"/>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
       <c r="B14" s="12" t="s">
         <v>50</v>
       </c>
@@ -4750,20 +4914,27 @@
         <v>1.5055322597076548</v>
       </c>
       <c r="K14" s="12">
+        <f t="shared" ref="K14:L14" si="16">+D14/D$20</f>
+        <v>0.42336077594766286</v>
+      </c>
+      <c r="L14" s="12">
+        <f t="shared" si="16"/>
+        <v>1.0055066387899858</v>
+      </c>
+      <c r="M14" s="12">
         <f>+F14/F$20</f>
         <v>1.0339317677204773</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="N14" s="12">
+        <f t="shared" ref="N14:O14" si="17">+G14/G$20</f>
+        <v>0.85077896162735323</v>
+      </c>
+      <c r="O14" s="12">
+        <f t="shared" si="17"/>
+        <v>0.21898155388967949</v>
+      </c>
+      <c r="Q14" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="R14" s="10" t="s">
         <v>7</v>
@@ -4774,18 +4945,27 @@
       <c r="T14" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="U14" s="10"/>
+      <c r="U14" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="V14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="W14" s="10" t="s">
+      <c r="Z14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AC14" s="5"/>
-      <c r="AD14"/>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14"/>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
       <c r="B15" s="12" t="s">
         <v>41</v>
       </c>
@@ -4813,43 +4993,59 @@
         <v>0.80493671670142264</v>
       </c>
       <c r="K15" s="12">
+        <f t="shared" ref="K15:L15" si="18">+D15/D$21</f>
+        <v>0.39224766256924154</v>
+      </c>
+      <c r="L15" s="12" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M15" s="12">
         <f>+F15/F$21</f>
         <v>0</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="N15" s="12" t="e">
+        <f t="shared" ref="N15:O15" si="19">+G15/G$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O15" s="12" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="O15" s="10">
+      <c r="R15" s="10">
         <v>0.2049049</v>
       </c>
-      <c r="P15" s="10">
+      <c r="S15" s="10">
         <v>0.52737719999999999</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="T15" s="10">
         <v>0</v>
       </c>
-      <c r="R15" s="10">
+      <c r="U15" s="10">
         <v>0.36439539999999998</v>
       </c>
-      <c r="S15" s="10">
+      <c r="V15" s="10">
         <v>0.48699320000000001</v>
       </c>
-      <c r="T15" s="10">
+      <c r="W15" s="10">
         <v>0.74875939999999996</v>
       </c>
-      <c r="U15" s="10"/>
-      <c r="V15" s="11">
-        <f t="shared" ref="V15:V20" si="0">O15/O$17</f>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="11">
+        <f t="shared" ref="Y15:Y20" si="20">R15/R$17</f>
         <v>0.43102203208250184</v>
       </c>
-      <c r="W15" s="11">
-        <f t="shared" ref="W15:W20" si="1">R15/R$17</f>
+      <c r="Z15" s="11">
+        <f t="shared" ref="Z15:Z20" si="21">U15/U$17</f>
         <v>0.75659097892979643</v>
       </c>
-      <c r="AC15" s="5"/>
-      <c r="AD15"/>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AF15" s="5"/>
+      <c r="AG15"/>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="12"/>
       <c r="C16" s="13"/>
@@ -4860,42 +5056,45 @@
       <c r="H16" s="13"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="N16" s="10" t="s">
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="Q16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O16" s="10">
+      <c r="R16" s="10">
         <v>0.75947339999999997</v>
       </c>
-      <c r="P16" s="10">
+      <c r="S16" s="10">
         <v>0.65475439999999996</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="T16" s="10">
         <v>0.75714840000000005</v>
       </c>
-      <c r="R16" s="10">
+      <c r="U16" s="10">
         <v>0.56786499999999995</v>
       </c>
-      <c r="S16" s="10">
+      <c r="V16" s="10">
         <v>0.58805960000000002</v>
       </c>
-      <c r="T16" s="10">
+      <c r="W16" s="10">
         <v>0.67143430000000004</v>
       </c>
-      <c r="U16" s="10"/>
-      <c r="V16" s="11">
-        <f t="shared" si="0"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="11">
+        <f t="shared" si="20"/>
         <v>1.5975692537396944</v>
       </c>
-      <c r="W16" s="11">
-        <f t="shared" si="1"/>
+      <c r="Z16" s="11">
+        <f t="shared" si="21"/>
         <v>1.1790531281403904</v>
       </c>
-      <c r="AC16" s="5"/>
-      <c r="AD16"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="AF16" s="5"/>
+      <c r="AG16"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -4921,42 +5120,45 @@
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="N17" s="10" t="s">
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="Q17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="10">
+      <c r="R17" s="10">
         <v>0.47539310000000001</v>
       </c>
-      <c r="P17" s="10">
+      <c r="S17" s="10">
         <v>0.6609836</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="T17" s="10">
         <v>0.60197279999999997</v>
       </c>
-      <c r="R17" s="10">
+      <c r="U17" s="10">
         <v>0.481628</v>
       </c>
-      <c r="S17" s="10">
+      <c r="V17" s="10">
         <v>0.53123609999999999</v>
       </c>
-      <c r="T17" s="10">
+      <c r="W17" s="10">
         <v>0.70752859999999995</v>
       </c>
-      <c r="U17" s="10"/>
-      <c r="V17" s="11">
-        <f t="shared" si="0"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="11">
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="W17" s="11">
-        <f t="shared" si="1"/>
+      <c r="Z17" s="11">
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AC17" s="5"/>
-      <c r="AD17"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
       <c r="B18" s="12" t="s">
         <v>17</v>
       </c>
@@ -4980,42 +5182,45 @@
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="N18" s="10" t="s">
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="Q18" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O18" s="10">
+      <c r="R18" s="10">
         <v>0.82038960000000005</v>
       </c>
-      <c r="P18" s="10">
+      <c r="S18" s="10">
         <v>0.64796560000000003</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="T18" s="10">
         <v>0.74245570000000005</v>
       </c>
-      <c r="R18" s="10">
+      <c r="U18" s="10">
         <v>0.61937949999999997</v>
       </c>
-      <c r="S18" s="10">
+      <c r="V18" s="10">
         <v>0.66259219999999996</v>
       </c>
-      <c r="T18" s="10">
+      <c r="W18" s="10">
         <v>0.66036260000000002</v>
       </c>
-      <c r="U18" s="10"/>
-      <c r="V18" s="11">
-        <f t="shared" si="0"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="11">
+        <f t="shared" si="20"/>
         <v>1.7257078405218755</v>
       </c>
-      <c r="W18" s="11">
-        <f t="shared" si="1"/>
+      <c r="Z18" s="11">
+        <f t="shared" si="21"/>
         <v>1.2860122335080186</v>
       </c>
-      <c r="AC18" s="5"/>
-      <c r="AD18"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
       <c r="B19" s="12" t="s">
         <v>19</v>
       </c>
@@ -5039,42 +5244,45 @@
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="N19" s="10" t="s">
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="Q19" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="O19" s="10">
+      <c r="R19" s="10">
         <v>0.34805190000000003</v>
       </c>
-      <c r="P19" s="10">
+      <c r="S19" s="10">
         <v>0.3888257</v>
-      </c>
-      <c r="Q19" s="10">
-        <v>1</v>
-      </c>
-      <c r="R19" s="10">
-        <v>0.37810169999999999</v>
-      </c>
-      <c r="S19" s="10">
-        <v>0.41839219999999999</v>
       </c>
       <c r="T19" s="10">
         <v>1</v>
       </c>
-      <c r="U19" s="10"/>
-      <c r="V19" s="11">
-        <f t="shared" si="0"/>
+      <c r="U19" s="10">
+        <v>0.37810169999999999</v>
+      </c>
+      <c r="V19" s="10">
+        <v>0.41839219999999999</v>
+      </c>
+      <c r="W19" s="10">
+        <v>1</v>
+      </c>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="11">
+        <f t="shared" si="20"/>
         <v>0.73213494264010148</v>
       </c>
-      <c r="W19" s="11">
-        <f t="shared" si="1"/>
+      <c r="Z19" s="11">
+        <f t="shared" si="21"/>
         <v>0.78504924962834388</v>
       </c>
-      <c r="AC19" s="5"/>
-      <c r="AD19"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
       <c r="B20" s="12" t="s">
         <v>50</v>
       </c>
@@ -5098,42 +5306,45 @@
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="N20" s="10" t="s">
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="Q20" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="O20" s="10">
+      <c r="R20" s="10">
         <v>0.41061120000000001</v>
       </c>
-      <c r="P20" s="10">
+      <c r="S20" s="10">
         <v>0.48960160000000003</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="T20" s="10">
         <v>0.68374780000000002</v>
       </c>
-      <c r="R20" s="10">
+      <c r="U20" s="10">
         <v>0.37144630000000001</v>
       </c>
-      <c r="S20" s="10">
+      <c r="V20" s="10">
         <v>0.5023164</v>
       </c>
-      <c r="T20" s="10">
+      <c r="W20" s="10">
         <v>0.58315600000000001</v>
       </c>
-      <c r="U20" s="10"/>
-      <c r="V20" s="11">
-        <f t="shared" si="0"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="11">
+        <f t="shared" si="20"/>
         <v>0.86372982695794276</v>
       </c>
-      <c r="W20" s="11">
-        <f t="shared" si="1"/>
+      <c r="Z20" s="11">
+        <f t="shared" si="21"/>
         <v>0.77123070087287282</v>
       </c>
-      <c r="AC20" s="5"/>
-      <c r="AD20"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
       <c r="B21" s="12" t="s">
         <v>41</v>
       </c>
@@ -5157,11 +5368,14 @@
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
@@ -5172,12 +5386,15 @@
       <c r="H22" s="13"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
         <v>64</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -5207,12 +5424,28 @@
         <v>1.5544479606557653</v>
       </c>
       <c r="K23" s="12">
+        <f t="shared" ref="K23:L23" si="22">+D23/D$17</f>
+        <v>2.1693762480220564</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="22"/>
+        <v>0.81734880102525498</v>
+      </c>
+      <c r="M23" s="12">
         <f>+F23/F$17</f>
         <v>1.6846355515277058</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
+      <c r="N23" s="12">
+        <f t="shared" ref="N23:O23" si="23">+G23/G$17</f>
+        <v>1.149282050699028</v>
+      </c>
+      <c r="O23" s="12">
+        <f t="shared" si="23"/>
+        <v>5.679410113588311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
       <c r="B24" s="12" t="s">
         <v>17</v>
       </c>
@@ -5240,12 +5473,28 @@
         <v>2.1241961758147232</v>
       </c>
       <c r="K24" s="12">
+        <f t="shared" ref="K24:L24" si="24">+D24/D$18</f>
+        <v>0.69600515441910693</v>
+      </c>
+      <c r="L24" s="12">
+        <f t="shared" si="24"/>
+        <v>2.2274201425548892</v>
+      </c>
+      <c r="M24" s="12">
         <f>+F24/F$18</f>
         <v>1.7092556119290658</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+      <c r="N24" s="12">
+        <f t="shared" ref="N24:O24" si="25">+G24/G$18</f>
+        <v>1.6864146014400621</v>
+      </c>
+      <c r="O24" s="12">
+        <f t="shared" si="25"/>
+        <v>2.1033459710376921</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
       <c r="B25" s="12" t="s">
         <v>19</v>
       </c>
@@ -5273,12 +5522,28 @@
         <v>2.6326697294538026</v>
       </c>
       <c r="K25" s="12">
+        <f t="shared" ref="K25:L25" si="26">+D25/D$19</f>
+        <v>0.47952184747096177</v>
+      </c>
+      <c r="L25" s="12" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="12">
         <f>+F25/F$19</f>
         <v>1.3355132966296412</v>
       </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
+      <c r="N25" s="12">
+        <f t="shared" ref="N25:O25" si="27">+G25/G$19</f>
+        <v>2.217949139544642</v>
+      </c>
+      <c r="O25" s="12">
+        <f t="shared" si="27"/>
+        <v>0.50735198827669392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
       <c r="B26" s="12" t="s">
         <v>50</v>
       </c>
@@ -5306,12 +5571,28 @@
         <v>1.2120672231908767</v>
       </c>
       <c r="K26" s="12">
+        <f t="shared" ref="K26:L26" si="28">+D26/D$20</f>
+        <v>0.61493241975358126</v>
+      </c>
+      <c r="L26" s="12">
+        <f t="shared" si="28"/>
+        <v>1.2155100646207497</v>
+      </c>
+      <c r="M26" s="12">
         <f>+F26/F$20</f>
         <v>0.92160584391470413</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
+      <c r="N26" s="12">
+        <f t="shared" ref="N26:O26" si="29">+G26/G$20</f>
+        <v>1.3190423635855846</v>
+      </c>
+      <c r="O26" s="12">
+        <f t="shared" si="29"/>
+        <v>0.3545185382479602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
       <c r="B27" s="12" t="s">
         <v>41</v>
       </c>
@@ -5339,11 +5620,27 @@
         <v>3.6906241612123964</v>
       </c>
       <c r="K27" s="12">
+        <f t="shared" ref="K27:L27" si="30">+D27/D$21</f>
+        <v>0.28152904245004784</v>
+      </c>
+      <c r="L27" s="12" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" s="12">
         <f>+F27/F$21</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="N27" s="12" t="e">
+        <f t="shared" ref="N27:O27" si="31">+G27/G$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27" s="12" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
@@ -5355,9 +5652,13 @@
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
         <v>70</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -5387,12 +5688,28 @@
         <v>0.64348014623892547</v>
       </c>
       <c r="K29" s="12">
+        <f t="shared" ref="K29:L29" si="32">+D29/D$17</f>
+        <v>0.56889036500954526</v>
+      </c>
+      <c r="L29" s="12">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="12">
         <f>+F29/F$17</f>
         <v>0.53624884918579896</v>
       </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
+      <c r="N29" s="12">
+        <f t="shared" ref="N29:O29" si="33">+G29/G$17</f>
+        <v>0.6175943460578972</v>
+      </c>
+      <c r="O29" s="12">
+        <f t="shared" si="33"/>
+        <v>6.2961735028652246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
       <c r="B30" s="12" t="s">
         <v>17</v>
       </c>
@@ -5420,12 +5737,28 @@
         <v>0.55155563467024527</v>
       </c>
       <c r="K30" s="12">
+        <f t="shared" ref="K30:L30" si="34">+D30/D$18</f>
+        <v>0.57315320515432155</v>
+      </c>
+      <c r="L30" s="12">
+        <f t="shared" si="34"/>
+        <v>4.1600002662400168</v>
+      </c>
+      <c r="M30" s="12">
         <f>+F30/F$18</f>
         <v>0.69134729878101064</v>
       </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
+      <c r="N30" s="12">
+        <f t="shared" ref="N30:O30" si="35">+G30/G$18</f>
+        <v>0.9668416214066361</v>
+      </c>
+      <c r="O30" s="12">
+        <f t="shared" si="35"/>
+        <v>2.5140212518765366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
       <c r="B31" s="12" t="s">
         <v>19</v>
       </c>
@@ -5453,12 +5786,28 @@
         <v>2.3841439157909559</v>
       </c>
       <c r="K31" s="12">
+        <f t="shared" ref="K31:L31" si="36">+D31/D$19</f>
+        <v>0.28847211801405886</v>
+      </c>
+      <c r="L31" s="12" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="12">
         <f>+F31/F$19</f>
         <v>1.2454237128891028</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
+      <c r="N31" s="12">
+        <f t="shared" ref="N31:O31" si="37">+G31/G$19</f>
+        <v>2.1363338011698985</v>
+      </c>
+      <c r="O31" s="12">
+        <f t="shared" si="37"/>
+        <v>0.37035016568353818</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
       <c r="B32" s="12" t="s">
         <v>50</v>
       </c>
@@ -5486,12 +5835,28 @@
         <v>0.30914201671914571</v>
       </c>
       <c r="K32" s="12">
+        <f t="shared" ref="K32:L32" si="38">+D32/D$20</f>
+        <v>0.31140474728686124</v>
+      </c>
+      <c r="L32" s="12">
+        <f t="shared" si="38"/>
+        <v>9.0391313033252256</v>
+      </c>
+      <c r="M32" s="12">
         <f>+F32/F$20</f>
         <v>0.47210785294318885</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
+      <c r="N32" s="12">
+        <f t="shared" ref="N32:O32" si="39">+G32/G$20</f>
+        <v>0.6972182158425968</v>
+      </c>
+      <c r="O32" s="12">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
       <c r="B33" s="12" t="s">
         <v>41</v>
       </c>
@@ -5519,11 +5884,27 @@
         <v>9.1218797101150037E-2</v>
       </c>
       <c r="K33" s="12">
+        <f t="shared" ref="K33:L33" si="40">+D33/D$21</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="12" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33" s="12">
         <f>+F33/F$21</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N33" s="12" t="e">
+        <f t="shared" ref="N33:O33" si="41">+G33/G$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O33" s="12" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="12"/>
       <c r="C34" s="13"/>
@@ -5535,9 +5916,13 @@
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -5567,12 +5952,28 @@
         <v>1.0255492884396911</v>
       </c>
       <c r="K35" s="12">
+        <f t="shared" ref="K35:L35" si="42">+D35/D$17</f>
+        <v>0.56234465476649975</v>
+      </c>
+      <c r="L35" s="12">
+        <f t="shared" si="42"/>
+        <v>0.24024186636673053</v>
+      </c>
+      <c r="M35" s="12">
         <f>+F35/F$17</f>
         <v>0.76448167807890743</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
+      <c r="N35" s="12">
+        <f t="shared" ref="N35:O35" si="43">+G35/G$17</f>
+        <v>1.018504999090484</v>
+      </c>
+      <c r="O35" s="12">
+        <f t="shared" si="43"/>
+        <v>4.8914914480687077</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
       <c r="B36" s="12" t="s">
         <v>17</v>
       </c>
@@ -5600,12 +6001,28 @@
         <v>0.63835034088752374</v>
       </c>
       <c r="K36" s="12">
+        <f t="shared" ref="K36:L36" si="44">+D36/D$18</f>
+        <v>0.69421960001532079</v>
+      </c>
+      <c r="L36" s="12">
+        <f t="shared" si="44"/>
+        <v>2.6909103162182602</v>
+      </c>
+      <c r="M36" s="12">
         <f>+F36/F$18</f>
         <v>0.63762798262964859</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
+      <c r="N36" s="12">
+        <f t="shared" ref="N36:O36" si="45">+G36/G$18</f>
+        <v>1.1433111868886092</v>
+      </c>
+      <c r="O36" s="12">
+        <f t="shared" si="45"/>
+        <v>1.6668763638611241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
       <c r="B37" s="12" t="s">
         <v>19</v>
       </c>
@@ -5633,12 +6050,28 @@
         <v>2.125076129622784</v>
       </c>
       <c r="K37" s="12">
+        <f t="shared" ref="K37:L37" si="46">+D37/D$19</f>
+        <v>0.52063784971598925</v>
+      </c>
+      <c r="L37" s="12" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="12">
         <f>+F37/F$19</f>
         <v>1.2854155254435773</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
+      <c r="N37" s="12">
+        <f t="shared" ref="N37:O37" si="47">+G37/G$19</f>
+        <v>1.795954419477084</v>
+      </c>
+      <c r="O37" s="12">
+        <f t="shared" si="47"/>
+        <v>0.3054588075493917</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
       <c r="B38" s="12" t="s">
         <v>50</v>
       </c>
@@ -5666,12 +6099,28 @@
         <v>0.46536556005859542</v>
       </c>
       <c r="K38" s="12">
+        <f t="shared" ref="K38:L38" si="48">+D38/D$20</f>
+        <v>0.16954953789649538</v>
+      </c>
+      <c r="L38" s="12">
+        <f t="shared" si="48"/>
+        <v>0.33349332595740222</v>
+      </c>
+      <c r="M38" s="12">
         <f>+F38/F$20</f>
         <v>0.47981387302981759</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
+      <c r="N38" s="12">
+        <f t="shared" ref="N38:O38" si="49">+G38/G$20</f>
+        <v>0.75307381887506253</v>
+      </c>
+      <c r="O38" s="12">
+        <f t="shared" si="49"/>
+        <v>0.29699038981189985</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
       <c r="B39" s="12" t="s">
         <v>41</v>
       </c>
@@ -5699,29 +6148,47 @@
         <v>0.14824086882910412</v>
       </c>
       <c r="K39" s="12">
+        <f t="shared" ref="K39:L39" si="50">+D39/D$21</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="12" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" s="12">
         <f>+F39/F$21</f>
         <v>0</v>
       </c>
+      <c r="N39" s="12" t="e">
+        <f t="shared" ref="N39:O39" si="51">+G39/G$21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O39" s="12" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="N12:W12"/>
+  <mergeCells count="19">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Q12:Z12"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A29:A33"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="J2:O2"/>
     <mergeCell ref="A35:A39"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A11:A15"/>
-    <mergeCell ref="J2:K2"/>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="N1:W1"/>
-    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="A17:A21"/>
-    <mergeCell ref="O13:Q13"/>
     <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:W13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5731,7 +6198,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5781,7 +6250,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B4" t="s">
@@ -5807,7 +6276,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" t="s">
         <v>50</v>
       </c>
@@ -5838,7 +6307,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -5868,7 +6337,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="18"/>
       <c r="B7" t="s">
         <v>41</v>
       </c>
@@ -5898,7 +6367,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="18"/>
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -5928,7 +6397,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="18"/>
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -5958,7 +6427,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="18"/>
       <c r="B10" t="s">
         <v>29</v>
       </c>
@@ -5988,7 +6457,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B11" t="s">
@@ -6014,7 +6483,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="18"/>
       <c r="B12" t="s">
         <v>50</v>
       </c>
@@ -6044,7 +6513,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="18"/>
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -6074,7 +6543,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="18"/>
       <c r="B14" t="s">
         <v>41</v>
       </c>
@@ -6104,7 +6573,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="18"/>
       <c r="B15" t="s">
         <v>19</v>
       </c>
@@ -6134,7 +6603,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="A16" s="18"/>
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -6164,7 +6633,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="18"/>
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -6194,7 +6663,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B18" t="s">
@@ -6210,7 +6679,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="18"/>
       <c r="B19" t="s">
         <v>50</v>
       </c>
@@ -6226,7 +6695,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="18"/>
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -6242,7 +6711,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="18"/>
       <c r="B21" t="s">
         <v>41</v>
       </c>
@@ -6258,7 +6727,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="18"/>
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -6274,7 +6743,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="A23" s="18"/>
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -6290,7 +6759,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="A24" s="18"/>
       <c r="B24" t="s">
         <v>29</v>
       </c>
@@ -6308,7 +6777,7 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="18" t="s">
         <v>58</v>
       </c>
       <c r="B25" t="s">
@@ -6334,7 +6803,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="18"/>
       <c r="B26" t="s">
         <v>50</v>
       </c>
@@ -6364,7 +6833,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="A27" s="18"/>
       <c r="B27" t="s">
         <v>17</v>
       </c>
@@ -6394,7 +6863,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="A28" s="18"/>
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -6424,7 +6893,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+      <c r="A29" s="18"/>
       <c r="B29" t="s">
         <v>19</v>
       </c>
@@ -6454,7 +6923,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
+      <c r="A30" s="18"/>
       <c r="B30" t="s">
         <v>20</v>
       </c>
@@ -6484,7 +6953,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
+      <c r="A31" s="18"/>
       <c r="B31" t="s">
         <v>29</v>
       </c>
@@ -6514,7 +6983,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B32" t="s">
@@ -6540,7 +7009,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
+      <c r="A33" s="18"/>
       <c r="B33" t="s">
         <v>50</v>
       </c>
@@ -6570,7 +7039,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
+      <c r="A34" s="18"/>
       <c r="B34" t="s">
         <v>17</v>
       </c>
@@ -6600,7 +7069,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
+      <c r="A35" s="18"/>
       <c r="B35" t="s">
         <v>41</v>
       </c>
@@ -6630,7 +7099,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
+      <c r="A36" s="18"/>
       <c r="B36" t="s">
         <v>19</v>
       </c>
@@ -6660,7 +7129,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
+      <c r="A37" s="18"/>
       <c r="B37" t="s">
         <v>20</v>
       </c>
@@ -6690,7 +7159,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
+      <c r="A38" s="18"/>
       <c r="B38" t="s">
         <v>29</v>
       </c>
@@ -6720,7 +7189,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B39" t="s">
@@ -6746,7 +7215,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
+      <c r="A40" s="18"/>
       <c r="B40" t="s">
         <v>50</v>
       </c>
@@ -6776,7 +7245,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
+      <c r="A41" s="18"/>
       <c r="B41" t="s">
         <v>17</v>
       </c>
@@ -6806,7 +7275,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
+      <c r="A42" s="18"/>
       <c r="B42" t="s">
         <v>41</v>
       </c>
@@ -6836,7 +7305,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
+      <c r="A43" s="18"/>
       <c r="B43" t="s">
         <v>19</v>
       </c>
@@ -6866,7 +7335,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
+      <c r="A44" s="18"/>
       <c r="B44" t="s">
         <v>20</v>
       </c>
@@ -6896,7 +7365,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
+      <c r="A45" s="18"/>
       <c r="B45" t="s">
         <v>29</v>
       </c>
@@ -6942,7 +7411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -7019,7 +7488,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -7030,16 +7499,16 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" t="s">
         <v>33</v>
       </c>
